--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>005552</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004361</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根安通回报混合A</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004362</t>
+          <t>004361</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根安通回报混合C</t>
+          <t>上投摩根安通回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>29.51</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>005553</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>004362</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>上投摩根安通回报混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -856,15 +986,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.52</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>005552</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>005553</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>82.26</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>82.26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.4</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.93</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.86</v>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.59</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.4</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2166,14 +2231,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.93</v>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2182,14 +2269,134 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="6">
@@ -2198,13 +2405,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.8</v>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2357,14 +2400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.59</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2373,14 +2438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.4</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2389,14 +2476,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.93</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2405,14 +2514,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.86</v>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2421,13 +2552,523 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.08</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.59</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.27</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1429,7 +1654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1675,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1952,366 +2177,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4913</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2982</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001392</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001393</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2386,26 +2251,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3605</t>
+          <t>1.4913</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2424,26 +2289,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>76.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2682</t>
+          <t>1.2982</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2452,36 +2317,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>63.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2490,32 +2355,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2528,36 +2393,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2566,36 +2431,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>001392</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>国富金融地产灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2604,36 +2469,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001392</t>
+          <t>001393</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富金融地产灵活配置混合A</t>
+          <t>国富金融地产灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2642,32 +2507,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001393</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国富金融地产灵活配置混合C</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>63.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2680,6 +2545,366 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
+++ b/数据整理/stocks/A股/深证主板/002043-兔宝宝.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.27</v>
       </c>
     </row>
@@ -616,7 +633,1787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014702</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1448,7 +3245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1654,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1900,7 +3697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2177,366 +3974,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4913</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2982</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001392</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001393</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2611,26 +4048,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3605</t>
+          <t>1.4913</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2649,26 +4086,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>76.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2682</t>
+          <t>1.2982</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2677,36 +4114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>63.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2715,32 +4152,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2753,36 +4190,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2791,36 +4228,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>001392</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>国富金融地产灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2829,36 +4266,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001392</t>
+          <t>001393</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富金融地产灵活配置混合A</t>
+          <t>国富金融地产灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2867,32 +4304,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001393</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国富金融地产灵活配置混合C</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>63.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2910,53 +4347,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2971,30 +4408,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>88.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1279</t>
+          <t>1.3605</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3009,22 +4446,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0506</t>
+          <t>1.2682</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3032,272 +4469,234 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8401</t>
+          <t>0.0904</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005552</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0912</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0904</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004361</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005553</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>22.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>001393</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>国富金融地产灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>82.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004362</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>